--- a/Geomorphology/Discharge_synop_GAVI_2021-06-29.xlsx
+++ b/Geomorphology/Discharge_synop_GAVI_2021-06-29.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Geomorphology/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2021/Geomorphology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{A952B64B-75B9-4A25-9345-6B77C4D64F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B41047-698B-4FB8-A168-697688C73BE1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409EE18E-B4DD-D84A-9EFA-D6B260924484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3C9C2B22-EEE1-4710-9247-B869AE86E465}"/>
+    <workbookView xWindow="16000" yWindow="1540" windowWidth="19420" windowHeight="16400" xr2:uid="{3C9C2B22-EEE1-4710-9247-B869AE86E465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="42">
   <si>
     <t>Point 7</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Point 12</t>
+  </si>
+  <si>
+    <t>2024 note: Gavi-down</t>
+  </si>
+  <si>
+    <t>2024 note: gavi-up</t>
   </si>
 </sst>
 </file>
@@ -523,29 +529,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222C1E58-E3CB-4FF0-A80E-8A561A45BC9A}">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -553,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.32936599999999999</v>
       </c>
@@ -561,7 +568,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -569,7 +576,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -577,15 +584,18 @@
         <v>0.45277777777777778</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -596,7 +606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -607,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -618,7 +628,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -629,7 +639,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -640,7 +650,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -651,7 +661,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
@@ -662,7 +672,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>25</v>
       </c>
@@ -673,7 +683,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -684,7 +694,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>33</v>
       </c>
@@ -695,18 +705,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -714,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-0.32936599999999999</v>
       </c>
@@ -722,7 +732,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -730,7 +740,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -738,15 +748,18 @@
         <v>0.52638888888888891</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -757,7 +770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -768,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -778,8 +791,12 @@
       <c r="C29">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <f>(A29-A28)/100*B29/100*C29</f>
+        <v>2.8000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10</v>
       </c>
@@ -789,8 +806,12 @@
       <c r="C30">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <f t="shared" ref="D30:D35" si="0">(A30-A29)/100*B30/100*C30</f>
+        <v>4.7999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>14</v>
       </c>
@@ -800,8 +821,12 @@
       <c r="C31">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>5.7600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>18</v>
       </c>
@@ -811,8 +836,12 @@
       <c r="C32">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1.9199999999999998E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20</v>
       </c>
@@ -822,8 +851,12 @@
       <c r="C33">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>9.5999999999999989E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
@@ -833,8 +866,12 @@
       <c r="C34">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>26</v>
       </c>
@@ -844,19 +881,27 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <f>SUM(D29:D34)</f>
+        <v>9.6000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -864,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-0.32936599999999999</v>
       </c>
@@ -872,7 +917,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -880,7 +925,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -888,12 +933,12 @@
         <v>0.53611111111111109</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -901,7 +946,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -909,7 +954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -917,7 +962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -925,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
@@ -934,12 +979,12 @@
         <v>2.4800000000000001E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -947,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-0.32936599999999999</v>
       </c>
@@ -955,7 +1000,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -963,7 +1008,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -971,7 +1016,7 @@
         <v>0.55208333333333337</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -979,7 +1024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -987,7 +1032,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -995,7 +1040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>24</v>
       </c>
@@ -1020,12 +1065,12 @@
         <v>9.9000000000000008E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -1033,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-0.32936599999999999</v>
       </c>
@@ -1041,7 +1086,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1094,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1102,7 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1118,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -1081,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -1089,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>24</v>
       </c>
@@ -1106,12 +1151,12 @@
         <v>4.0000000000000007E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-0.32936599999999999</v>
       </c>
@@ -1127,7 +1172,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1180,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1188,7 @@
         <v>0.58194444444444449</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -1151,7 +1196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1204,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -1167,7 +1212,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +1220,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -1183,7 +1228,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>24</v>
       </c>
@@ -1192,12 +1237,12 @@
         <v>4.125E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -1205,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-0.32936599999999999</v>
       </c>
@@ -1213,7 +1258,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1266,7 @@
         <v>0.58680555555555558</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -1237,7 +1282,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -1245,7 +1290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -1253,7 +1298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -1261,7 +1306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>24</v>
       </c>
@@ -1270,12 +1315,12 @@
         <v>1.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -1283,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-0.32936599999999999</v>
       </c>
@@ -1291,7 +1336,7 @@
         <v>-78.200919999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1344,7 @@
         <v>0.59513888888888888</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1360,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -1323,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -1339,7 +1384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>24</v>
       </c>
@@ -1348,12 +1393,12 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -1361,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>-0.32936599999999999</v>
       </c>
@@ -1369,7 +1414,7 @@
         <v>-78.200919999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +1422,7 @@
         <v>0.60347222222222219</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -1385,7 +1430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -1393,7 +1438,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1417,7 +1462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>24</v>
       </c>
@@ -1426,12 +1471,12 @@
         <v>7.2000000000000002E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>-0.32936599999999999</v>
       </c>
@@ -1447,7 +1492,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -1455,12 +1500,12 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -1468,7 +1513,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +1521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -1484,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -1492,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>24</v>
       </c>
@@ -1501,12 +1546,12 @@
         <v>1.1200000000000001E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -1514,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>-0.32936599999999999</v>
       </c>
@@ -1522,7 +1567,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1575,7 @@
         <v>0.61111111111111105</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -1546,7 +1591,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -1562,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>24</v>
       </c>
@@ -1579,12 +1624,12 @@
         <v>5.5000000000000009E-5</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>-0.32936599999999999</v>
       </c>
@@ -1600,7 +1645,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1653,7 @@
         <v>0.61458333333333337</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -1624,7 +1669,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -1632,7 +1677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -1648,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>24</v>
       </c>

--- a/Geomorphology/Discharge_synop_GAVI_2021-06-29.xlsx
+++ b/Geomorphology/Discharge_synop_GAVI_2021-06-29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2021/Geomorphology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Documents/Ecuador2021/Geomorphology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409EE18E-B4DD-D84A-9EFA-D6B260924484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{409EE18E-B4DD-D84A-9EFA-D6B260924484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{992C6ACA-49E9-440F-A905-52CCCDFEA418}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="1540" windowWidth="19420" windowHeight="16400" xr2:uid="{3C9C2B22-EEE1-4710-9247-B869AE86E465}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3C9C2B22-EEE1-4710-9247-B869AE86E465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t>Point 7</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>2024 note: gavi-up</t>
+  </si>
+  <si>
+    <t>this is the stream tessa measured 6/28 eos 1</t>
   </si>
 </sst>
 </file>
@@ -233,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -379,7 +382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -531,28 +534,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222C1E58-E3CB-4FF0-A80E-8A561A45BC9A}">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -560,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.32936599999999999</v>
       </c>
@@ -568,7 +571,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -576,7 +579,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -584,7 +587,7 @@
         <v>0.45277777777777778</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -595,7 +598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -606,7 +609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -617,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -628,7 +631,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -639,7 +642,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -650,7 +653,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -661,7 +664,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -672,7 +675,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
@@ -683,7 +686,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30</v>
       </c>
@@ -694,7 +697,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33</v>
       </c>
@@ -705,18 +708,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -724,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.32936599999999999</v>
       </c>
@@ -732,7 +735,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -740,7 +743,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -748,7 +751,7 @@
         <v>0.52638888888888891</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -759,7 +762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -770,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -796,7 +799,7 @@
         <v>2.8000000000000003E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -811,7 +814,7 @@
         <v>4.7999999999999994E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -826,7 +829,7 @@
         <v>5.7600000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
@@ -841,7 +844,7 @@
         <v>1.9199999999999998E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -856,7 +859,7 @@
         <v>9.5999999999999989E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
@@ -871,7 +874,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -886,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
@@ -896,12 +899,12 @@
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -909,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-0.32936599999999999</v>
       </c>
@@ -917,7 +920,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -925,7 +928,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -933,12 +936,15 @@
         <v>0.53611111111111109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -946,7 +952,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -954,7 +960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -962,7 +968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -970,7 +976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
@@ -979,12 +985,12 @@
         <v>2.4800000000000001E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -992,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-0.32936599999999999</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>0.55208333333333337</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>24</v>
       </c>
@@ -1065,12 +1071,12 @@
         <v>9.9000000000000008E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.32936599999999999</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>24</v>
       </c>
@@ -1151,12 +1157,12 @@
         <v>4.0000000000000007E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-0.32936599999999999</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>0.58194444444444449</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>24</v>
       </c>
@@ -1237,12 +1243,12 @@
         <v>4.125E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-0.32936599999999999</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>0.58680555555555558</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>24</v>
       </c>
@@ -1315,12 +1321,12 @@
         <v>1.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-0.32936599999999999</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>-78.200919999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>0.59513888888888888</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>24</v>
       </c>
@@ -1393,12 +1399,12 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>-0.32936599999999999</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>-78.200919999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>0.60347222222222219</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>24</v>
       </c>
@@ -1471,12 +1477,12 @@
         <v>7.2000000000000002E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>-0.32936599999999999</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -1500,12 +1506,12 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>24</v>
       </c>
@@ -1546,12 +1552,12 @@
         <v>1.1200000000000001E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>-0.32936599999999999</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>0.61111111111111105</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>24</v>
       </c>
@@ -1624,12 +1630,12 @@
         <v>5.5000000000000009E-5</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>-0.32936599999999999</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>-78.200971999999993</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>0.61458333333333337</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>24</v>
       </c>
